--- a/Team Info.xlsx
+++ b/Team Info.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew\Code\Robotics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew\Code\Robotics\SkyRise\TeamA_\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Leaders</t>
   </si>
@@ -46,6 +46,12 @@
     <t>Keys</t>
   </si>
   <si>
+    <t>Left Drive</t>
+  </si>
+  <si>
+    <t>Right Drive</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -55,18 +61,30 @@
     <t>Reversed</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>Port</t>
   </si>
   <si>
+    <t>Lift</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>Encoder Port</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>Motor 5</t>
+  </si>
+  <si>
     <t>Control</t>
   </si>
   <si>
@@ -125,6 +143,33 @@
   </si>
   <si>
     <t>*Starts at box nearest autoloader</t>
+  </si>
+  <si>
+    <t>Kabir Thombre</t>
+  </si>
+  <si>
+    <t>Matthew Schmitt</t>
+  </si>
+  <si>
+    <t>I2C_3</t>
+  </si>
+  <si>
+    <t>I2C_2</t>
+  </si>
+  <si>
+    <t>I2C_1</t>
+  </si>
+  <si>
+    <t>IME</t>
+  </si>
+  <si>
+    <t>Motor 6</t>
+  </si>
+  <si>
+    <t>Motor 3</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -454,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -483,8 +528,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -496,7 +564,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -510,19 +578,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -534,64 +602,121 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,10 +731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,16 +748,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
+      <c r="D4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -658,10 +825,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -669,82 +836,82 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +935,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25"/>
@@ -793,7 +960,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25"/>
